--- a/Excel/BuffConfig@cs.xlsx
+++ b/Excel/BuffConfig@cs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20391"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitProject\ET_Framwork\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitProject\ETPro\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4ECBB4F-F844-41E6-A2A9-A95EECF7E567}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9F6449-4BEB-4E78-AE71-4DEF716E7640}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>类型（1属性变化2行为禁制3持续掉血）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>int[]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -88,6 +84,10 @@
   </si>
   <si>
     <t>游戏特效表现（0表示无）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型（1属性变化2行为禁制3持续掉血4吟唱）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -515,10 +515,10 @@
         <v>4</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>5</v>
@@ -544,7 +544,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>15</v>
@@ -573,10 +573,10 @@
         <v>13</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>13</v>
@@ -609,6 +609,12 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C8" s="1">
+        <v>1002</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4</v>
+      </c>
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
